--- a/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5704</t>
+          <t>5703</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24378803.42</t>
+          <t>24351628.17</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
